--- a/React.xlsx
+++ b/React.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vodm1001\Desktop\js\prj\social_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prj\git\calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E34948D-D3C2-4A34-82EC-70EF27909A7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D9CFE-D74D-4406-98E7-7F53D5DD55F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8415" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="react" sheetId="1" r:id="rId1"/>
     <sheet name="git" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>spa (single page aplication)</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t xml:space="preserve"> аргумент компоненти</t>
+  </si>
+  <si>
+    <t>npm i react-router-dom -save</t>
+  </si>
+  <si>
+    <t>встановлення роутер модуля і запис в package.json</t>
   </si>
 </sst>
 </file>
@@ -384,12 +390,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -484,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -506,9 +518,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,15 +867,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,6 +919,14 @@
       </c>
       <c r="E4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
